--- a/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_physical.xlsx
+++ b/Tableau métriques/moyenne/2022_2023/Skill Corner/metrique_physical.xlsx
@@ -577,82 +577,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39666.86486486487</v>
+        <v>36984.78942497371</v>
       </c>
       <c r="C2" t="n">
-        <v>2001.838378378379</v>
+        <v>1863.713111023834</v>
       </c>
       <c r="D2" t="n">
-        <v>6289.216216216216</v>
+        <v>5864.194604207496</v>
       </c>
       <c r="E2" t="n">
-        <v>2458.756756756757</v>
+        <v>2291.779877781744</v>
       </c>
       <c r="F2" t="n">
-        <v>237.1891891891892</v>
+        <v>221.0521250706038</v>
       </c>
       <c r="G2" t="n">
-        <v>858.5405405405405</v>
+        <v>799.587147699983</v>
       </c>
       <c r="H2" t="n">
-        <v>43.24324324324324</v>
+        <v>40.3001736459458</v>
       </c>
       <c r="I2" t="n">
-        <v>3317.297297297298</v>
+        <v>3091.367025481727</v>
       </c>
       <c r="J2" t="n">
-        <v>280.4324324324324</v>
+        <v>261.3522987165496</v>
       </c>
       <c r="K2" t="n">
-        <v>421.6756756756757</v>
+        <v>393.013095416546</v>
       </c>
       <c r="L2" t="n">
-        <v>23.51351351351351</v>
+        <v>21.91741730592575</v>
       </c>
       <c r="M2" t="n">
-        <v>298.2432432432432</v>
+        <v>278.0250160352341</v>
       </c>
       <c r="N2" t="n">
-        <v>44.67567567567568</v>
+        <v>41.65753511656836</v>
       </c>
       <c r="O2" t="n">
-        <v>37958.62162162162</v>
+        <v>35318.30623147275</v>
       </c>
       <c r="P2" t="n">
-        <v>2207.652162162162</v>
+        <v>2055.524019744857</v>
       </c>
       <c r="Q2" t="n">
-        <v>7561.432432432433</v>
+        <v>7035.737028209332</v>
       </c>
       <c r="R2" t="n">
-        <v>3112.351351351351</v>
+        <v>2898.498343348916</v>
       </c>
       <c r="S2" t="n">
-        <v>281.8648648648648</v>
+        <v>262.4617143176719</v>
       </c>
       <c r="T2" t="n">
-        <v>812.7297297297297</v>
+        <v>757.7201179376283</v>
       </c>
       <c r="U2" t="n">
-        <v>42.2972972972973</v>
+        <v>39.44895443994156</v>
       </c>
       <c r="V2" t="n">
-        <v>3925.081081081081</v>
+        <v>3656.218461286545</v>
       </c>
       <c r="W2" t="n">
-        <v>324.1621621621622</v>
+        <v>301.9106687576135</v>
       </c>
       <c r="X2" t="n">
-        <v>447.5405405405405</v>
+        <v>416.4765382603131</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.91891891891892</v>
+        <v>21.35569289610375</v>
       </c>
       <c r="Z2" t="n">
-        <v>316.2972972972973</v>
+        <v>294.2538785565282</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.43243243243244</v>
+        <v>55.32037164341867</v>
       </c>
     </row>
     <row r="3">
@@ -662,82 +662,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37445.02777777778</v>
+        <v>35139.82353109887</v>
       </c>
       <c r="C3" t="n">
-        <v>1802.196111111111</v>
+        <v>1690.440770990897</v>
       </c>
       <c r="D3" t="n">
-        <v>5876</v>
+        <v>5511.485981514406</v>
       </c>
       <c r="E3" t="n">
-        <v>2386.805555555556</v>
+        <v>2238.681337601321</v>
       </c>
       <c r="F3" t="n">
-        <v>228.3888888888889</v>
+        <v>214.2489973357439</v>
       </c>
       <c r="G3" t="n">
-        <v>896.8333333333334</v>
+        <v>840.5826305662382</v>
       </c>
       <c r="H3" t="n">
-        <v>42.69444444444444</v>
+        <v>40.02188985175228</v>
       </c>
       <c r="I3" t="n">
-        <v>3283.638888888889</v>
+        <v>3079.263968167559</v>
       </c>
       <c r="J3" t="n">
-        <v>271.0833333333333</v>
+        <v>254.2708871874962</v>
       </c>
       <c r="K3" t="n">
-        <v>386.0833333333333</v>
+        <v>362.3264014831789</v>
       </c>
       <c r="L3" t="n">
-        <v>25.69444444444444</v>
+        <v>24.12555135755219</v>
       </c>
       <c r="M3" t="n">
-        <v>277.5833333333333</v>
+        <v>260.5781337760715</v>
       </c>
       <c r="N3" t="n">
-        <v>44.02777777777778</v>
+        <v>41.33524022861447</v>
       </c>
       <c r="O3" t="n">
-        <v>39737.52777777778</v>
+        <v>37278.73176481328</v>
       </c>
       <c r="P3" t="n">
-        <v>1855.891944444445</v>
+        <v>1741.475776568035</v>
       </c>
       <c r="Q3" t="n">
-        <v>7372.388888888889</v>
+        <v>6918.282226475702</v>
       </c>
       <c r="R3" t="n">
-        <v>2887.5</v>
+        <v>2708.275818993478</v>
       </c>
       <c r="S3" t="n">
-        <v>270.25</v>
+        <v>253.4574588476533</v>
       </c>
       <c r="T3" t="n">
-        <v>744.6111111111111</v>
+        <v>697.6124669116859</v>
       </c>
       <c r="U3" t="n">
-        <v>39.58333333333334</v>
+        <v>37.08361998645271</v>
       </c>
       <c r="V3" t="n">
-        <v>3632.111111111111</v>
+        <v>3405.888285905164</v>
       </c>
       <c r="W3" t="n">
-        <v>309.8333333333333</v>
+        <v>290.541078834106</v>
       </c>
       <c r="X3" t="n">
-        <v>474</v>
+        <v>444.7572931794446</v>
       </c>
       <c r="Y3" t="n">
-        <v>25.08333333333333</v>
+        <v>23.50821093050978</v>
       </c>
       <c r="Z3" t="n">
-        <v>350.5555555555555</v>
+        <v>328.8671087604378</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.30555555555556</v>
+        <v>56.52843416597797</v>
       </c>
     </row>
     <row r="4">
@@ -747,82 +747,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38169.56756756757</v>
+        <v>35670.40120009604</v>
       </c>
       <c r="C4" t="n">
-        <v>1870.076486486487</v>
+        <v>1748.937103663767</v>
       </c>
       <c r="D4" t="n">
-        <v>5611.783783783784</v>
+        <v>5243.529566463166</v>
       </c>
       <c r="E4" t="n">
-        <v>2187.567567567567</v>
+        <v>2044.955379152391</v>
       </c>
       <c r="F4" t="n">
-        <v>210.7297297297297</v>
+        <v>196.9924026273008</v>
       </c>
       <c r="G4" t="n">
-        <v>826.3513513513514</v>
+        <v>772.8018779050992</v>
       </c>
       <c r="H4" t="n">
-        <v>40.83783783783784</v>
+        <v>38.19431627864717</v>
       </c>
       <c r="I4" t="n">
-        <v>3013.918918918919</v>
+        <v>2817.75725705749</v>
       </c>
       <c r="J4" t="n">
-        <v>251.5675675675676</v>
+        <v>235.186718905948</v>
       </c>
       <c r="K4" t="n">
-        <v>395.0810810810811</v>
+        <v>369.251856386387</v>
       </c>
       <c r="L4" t="n">
-        <v>22.02702702702703</v>
+        <v>20.56326026971866</v>
       </c>
       <c r="M4" t="n">
-        <v>278.4594594594595</v>
+        <v>260.2173766191106</v>
       </c>
       <c r="N4" t="n">
-        <v>43.08108108108108</v>
+        <v>40.28671915993478</v>
       </c>
       <c r="O4" t="n">
-        <v>37338.10810810811</v>
+        <v>34967.84365323477</v>
       </c>
       <c r="P4" t="n">
-        <v>2090.187567567568</v>
+        <v>1955.997191947915</v>
       </c>
       <c r="Q4" t="n">
-        <v>7192.891891891892</v>
+        <v>6735.950429127836</v>
       </c>
       <c r="R4" t="n">
-        <v>2683.810810810811</v>
+        <v>2512.264471963871</v>
       </c>
       <c r="S4" t="n">
-        <v>243.2162162162162</v>
+        <v>227.7493592698368</v>
       </c>
       <c r="T4" t="n">
-        <v>698.6756756756756</v>
+        <v>654.4873509197188</v>
       </c>
       <c r="U4" t="n">
-        <v>36.64864864864865</v>
+        <v>34.32881547899326</v>
       </c>
       <c r="V4" t="n">
-        <v>3382.486486486487</v>
+        <v>3166.75182288359</v>
       </c>
       <c r="W4" t="n">
-        <v>279.8648648648648</v>
+        <v>262.0781747488301</v>
       </c>
       <c r="X4" t="n">
-        <v>423.1351351351352</v>
+        <v>396.2543559713862</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.2972972972973</v>
+        <v>19.01366400801037</v>
       </c>
       <c r="Z4" t="n">
-        <v>303.4054054054054</v>
+        <v>284.1242905108756</v>
       </c>
       <c r="AA4" t="n">
-        <v>50.7027027027027</v>
+        <v>47.46093844235369</v>
       </c>
     </row>
     <row r="5">
@@ -832,82 +832,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34637.57894736842</v>
+        <v>32647.87026909309</v>
       </c>
       <c r="C5" t="n">
-        <v>1871.774736842105</v>
+        <v>1763.767837903084</v>
       </c>
       <c r="D5" t="n">
-        <v>5733.605263157895</v>
+        <v>5403.07065083388</v>
       </c>
       <c r="E5" t="n">
-        <v>2152.684210526316</v>
+        <v>2028.882743576388</v>
       </c>
       <c r="F5" t="n">
-        <v>200.578947368421</v>
+        <v>188.9873199756406</v>
       </c>
       <c r="G5" t="n">
-        <v>755.6052631578947</v>
+        <v>713.0034047802379</v>
       </c>
       <c r="H5" t="n">
-        <v>38.31578947368421</v>
+        <v>36.12928511257346</v>
       </c>
       <c r="I5" t="n">
-        <v>2908.28947368421</v>
+        <v>2741.886148356625</v>
       </c>
       <c r="J5" t="n">
-        <v>238.8947368421053</v>
+        <v>225.1166050882141</v>
       </c>
       <c r="K5" t="n">
-        <v>345.3684210526316</v>
+        <v>325.3385808165229</v>
       </c>
       <c r="L5" t="n">
-        <v>19.81578947368421</v>
+        <v>18.66445279530906</v>
       </c>
       <c r="M5" t="n">
-        <v>248.2105263157895</v>
+        <v>233.8347715843163</v>
       </c>
       <c r="N5" t="n">
-        <v>40.02631578947368</v>
+        <v>37.69567533837247</v>
       </c>
       <c r="O5" t="n">
-        <v>38379.05263157895</v>
+        <v>36186.72569018874</v>
       </c>
       <c r="P5" t="n">
-        <v>2000.227368421053</v>
+        <v>1884.033887926297</v>
       </c>
       <c r="Q5" t="n">
-        <v>7550.973684210527</v>
+        <v>7116.883714345494</v>
       </c>
       <c r="R5" t="n">
-        <v>2894.026315789474</v>
+        <v>2726.646221664719</v>
       </c>
       <c r="S5" t="n">
-        <v>268.6578947368421</v>
+        <v>253.1635916720752</v>
       </c>
       <c r="T5" t="n">
-        <v>757.578947368421</v>
+        <v>713.6647968605633</v>
       </c>
       <c r="U5" t="n">
-        <v>40.21052631578947</v>
+        <v>37.89107176172122</v>
       </c>
       <c r="V5" t="n">
-        <v>3651.605263157895</v>
+        <v>3440.311018525283</v>
       </c>
       <c r="W5" t="n">
-        <v>308.8684210526316</v>
+        <v>291.0546634337964</v>
       </c>
       <c r="X5" t="n">
-        <v>435.5526315789473</v>
+        <v>410.6698631995355</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.68421052631579</v>
+        <v>20.4323344750366</v>
       </c>
       <c r="Z5" t="n">
-        <v>318.078947368421</v>
+        <v>300.0259382531694</v>
       </c>
       <c r="AA5" t="n">
-        <v>53.81578947368421</v>
+        <v>50.74899268971261</v>
       </c>
     </row>
     <row r="6">
@@ -917,82 +917,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39642.44736842105</v>
+        <v>36974.38135238089</v>
       </c>
       <c r="C6" t="n">
-        <v>2112.557894736842</v>
+        <v>1971.081921566278</v>
       </c>
       <c r="D6" t="n">
-        <v>6685.394736842105</v>
+        <v>6237.721800697452</v>
       </c>
       <c r="E6" t="n">
-        <v>2576.342105263158</v>
+        <v>2404.758738272372</v>
       </c>
       <c r="F6" t="n">
-        <v>241.7368421052632</v>
+        <v>225.6470418362181</v>
       </c>
       <c r="G6" t="n">
-        <v>839.2368421052631</v>
+        <v>783.1023279153544</v>
       </c>
       <c r="H6" t="n">
-        <v>45.07894736842105</v>
+        <v>42.10090083547875</v>
       </c>
       <c r="I6" t="n">
-        <v>3415.578947368421</v>
+        <v>3187.861066187726</v>
       </c>
       <c r="J6" t="n">
-        <v>286.8157894736842</v>
+        <v>267.7479426716968</v>
       </c>
       <c r="K6" t="n">
-        <v>415.3947368421053</v>
+        <v>387.5376182218013</v>
       </c>
       <c r="L6" t="n">
-        <v>24.26315789473684</v>
+        <v>22.63332159269888</v>
       </c>
       <c r="M6" t="n">
-        <v>291.578947368421</v>
+        <v>272.0246582558757</v>
       </c>
       <c r="N6" t="n">
-        <v>43.57894736842105</v>
+        <v>40.65699418550835</v>
       </c>
       <c r="O6" t="n">
-        <v>36469.05263157895</v>
+        <v>34037.08639854103</v>
       </c>
       <c r="P6" t="n">
-        <v>2110.81447368421</v>
+        <v>1969.814407356367</v>
       </c>
       <c r="Q6" t="n">
-        <v>6919.815789473684</v>
+        <v>6461.814865793849</v>
       </c>
       <c r="R6" t="n">
-        <v>2871.921052631579</v>
+        <v>2682.693670934113</v>
       </c>
       <c r="S6" t="n">
-        <v>262.3947368421053</v>
+        <v>245.1037549219388</v>
       </c>
       <c r="T6" t="n">
-        <v>765.5526315789474</v>
+        <v>715.0841630708672</v>
       </c>
       <c r="U6" t="n">
-        <v>39.68421052631579</v>
+        <v>37.05953411533455</v>
       </c>
       <c r="V6" t="n">
-        <v>3637.473684210526</v>
+        <v>3397.777834004981</v>
       </c>
       <c r="W6" t="n">
-        <v>302.078947368421</v>
+        <v>282.1632890372734</v>
       </c>
       <c r="X6" t="n">
-        <v>426.9473684210527</v>
+        <v>398.4998238482113</v>
       </c>
       <c r="Y6" t="n">
-        <v>22.10526315789474</v>
+        <v>20.63306160534848</v>
       </c>
       <c r="Z6" t="n">
-        <v>290.7105263157895</v>
+        <v>271.3609392051098</v>
       </c>
       <c r="AA6" t="n">
-        <v>51.97368421052632</v>
+        <v>48.55508678535421</v>
       </c>
     </row>
     <row r="7">
@@ -1002,82 +1002,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36357.22222222222</v>
+        <v>34048.34512309541</v>
       </c>
       <c r="C7" t="n">
-        <v>1933.678888888889</v>
+        <v>1809.977375102943</v>
       </c>
       <c r="D7" t="n">
-        <v>5909.833333333333</v>
+        <v>5533.32353787244</v>
       </c>
       <c r="E7" t="n">
-        <v>2307</v>
+        <v>2159.542732544159</v>
       </c>
       <c r="F7" t="n">
-        <v>219.3055555555555</v>
+        <v>205.3246991204325</v>
       </c>
       <c r="G7" t="n">
-        <v>774.3055555555555</v>
+        <v>724.6160456364601</v>
       </c>
       <c r="H7" t="n">
-        <v>40.91666666666666</v>
+        <v>38.30731764814891</v>
       </c>
       <c r="I7" t="n">
-        <v>3081.305555555556</v>
+        <v>2884.158778180619</v>
       </c>
       <c r="J7" t="n">
-        <v>260.2222222222222</v>
+        <v>243.6320167685814</v>
       </c>
       <c r="K7" t="n">
-        <v>377.6944444444445</v>
+        <v>353.7184562348427</v>
       </c>
       <c r="L7" t="n">
-        <v>18.77777777777778</v>
+        <v>17.57795175567649</v>
       </c>
       <c r="M7" t="n">
-        <v>260.6944444444445</v>
+        <v>244.2240809511906</v>
       </c>
       <c r="N7" t="n">
-        <v>38.30555555555556</v>
+        <v>35.89492816239859</v>
       </c>
       <c r="O7" t="n">
-        <v>42473.44444444445</v>
+        <v>39748.91055695822</v>
       </c>
       <c r="P7" t="n">
-        <v>2087.858611111111</v>
+        <v>1954.231772442519</v>
       </c>
       <c r="Q7" t="n">
-        <v>8114.777777777777</v>
+        <v>7594.832236369612</v>
       </c>
       <c r="R7" t="n">
-        <v>3004.111111111111</v>
+        <v>2812.131488379547</v>
       </c>
       <c r="S7" t="n">
-        <v>277.0833333333333</v>
+        <v>259.3236854680563</v>
       </c>
       <c r="T7" t="n">
-        <v>760.4722222222222</v>
+        <v>711.5460650218032</v>
       </c>
       <c r="U7" t="n">
-        <v>40.75</v>
+        <v>38.13584943155273</v>
       </c>
       <c r="V7" t="n">
-        <v>3764.583333333333</v>
+        <v>3523.67755340135</v>
       </c>
       <c r="W7" t="n">
-        <v>317.8333333333333</v>
+        <v>297.459534899609</v>
       </c>
       <c r="X7" t="n">
-        <v>474.0555555555555</v>
+        <v>443.638665347588</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.36111111111111</v>
+        <v>20.92133440938671</v>
       </c>
       <c r="Z7" t="n">
-        <v>352.6944444444445</v>
+        <v>330.0160218141575</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.80555555555556</v>
+        <v>53.17140072714147</v>
       </c>
     </row>
     <row r="8">
@@ -1087,82 +1087,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40923.35135135135</v>
+        <v>38666.44617415352</v>
       </c>
       <c r="C8" t="n">
-        <v>1862.877027027027</v>
+        <v>1761.108252905832</v>
       </c>
       <c r="D8" t="n">
-        <v>6250.108108108108</v>
+        <v>5907.780197285741</v>
       </c>
       <c r="E8" t="n">
-        <v>2595.108108108108</v>
+        <v>2453.299623878735</v>
       </c>
       <c r="F8" t="n">
-        <v>245.4594594594595</v>
+        <v>231.9725186381782</v>
       </c>
       <c r="G8" t="n">
-        <v>888.1891891891892</v>
+        <v>839.1770725630356</v>
       </c>
       <c r="H8" t="n">
-        <v>47.02702702702702</v>
+        <v>44.43655945661627</v>
       </c>
       <c r="I8" t="n">
-        <v>3483.297297297298</v>
+        <v>3292.476696441771</v>
       </c>
       <c r="J8" t="n">
-        <v>292.4864864864865</v>
+        <v>276.4090780947945</v>
       </c>
       <c r="K8" t="n">
-        <v>426.7837837837838</v>
+        <v>403.1707345705044</v>
       </c>
       <c r="L8" t="n">
-        <v>24.54054054054054</v>
+        <v>23.22314552223716</v>
       </c>
       <c r="M8" t="n">
-        <v>304.1081081081081</v>
+        <v>287.229812868405</v>
       </c>
       <c r="N8" t="n">
-        <v>47.56756756756756</v>
+        <v>44.94408914964191</v>
       </c>
       <c r="O8" t="n">
-        <v>38124.2972972973</v>
+        <v>36027.20407695029</v>
       </c>
       <c r="P8" t="n">
-        <v>1940.487297297297</v>
+        <v>1834.103387848691</v>
       </c>
       <c r="Q8" t="n">
-        <v>6605.783783783784</v>
+        <v>6243.634696270775</v>
       </c>
       <c r="R8" t="n">
-        <v>2490.108108108108</v>
+        <v>2353.072603634937</v>
       </c>
       <c r="S8" t="n">
-        <v>245</v>
+        <v>231.5665083891014</v>
       </c>
       <c r="T8" t="n">
-        <v>706.2702702702703</v>
+        <v>667.878425248301</v>
       </c>
       <c r="U8" t="n">
-        <v>37.10810810810811</v>
+        <v>35.06300640891956</v>
       </c>
       <c r="V8" t="n">
-        <v>3196.378378378378</v>
+        <v>3020.951028883238</v>
       </c>
       <c r="W8" t="n">
-        <v>282.1081081081081</v>
+        <v>266.6295147980209</v>
       </c>
       <c r="X8" t="n">
-        <v>437.1081081081081</v>
+        <v>413.1113148006331</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.91891891891892</v>
+        <v>19.79208500210665</v>
       </c>
       <c r="Z8" t="n">
-        <v>314.3783783783784</v>
+        <v>297.0488495061834</v>
       </c>
       <c r="AA8" t="n">
-        <v>53.2972972972973</v>
+        <v>50.37113890699165</v>
       </c>
     </row>
     <row r="9">
@@ -1172,82 +1172,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>38957.28571428572</v>
+        <v>36440.72858284784</v>
       </c>
       <c r="C9" t="n">
-        <v>1960.396857142857</v>
+        <v>1833.717587287561</v>
       </c>
       <c r="D9" t="n">
-        <v>6370.942857142857</v>
+        <v>5958.15467724795</v>
       </c>
       <c r="E9" t="n">
-        <v>2485.742857142857</v>
+        <v>2324.180100690997</v>
       </c>
       <c r="F9" t="n">
-        <v>228.5142857142857</v>
+        <v>213.7833744146907</v>
       </c>
       <c r="G9" t="n">
-        <v>810.9142857142857</v>
+        <v>759.8475574042693</v>
       </c>
       <c r="H9" t="n">
-        <v>41.82857142857143</v>
+        <v>39.15836666954452</v>
       </c>
       <c r="I9" t="n">
-        <v>3296.657142857143</v>
+        <v>3084.027658095266</v>
       </c>
       <c r="J9" t="n">
-        <v>270.3428571428572</v>
+        <v>252.9417410842352</v>
       </c>
       <c r="K9" t="n">
-        <v>398.6285714285714</v>
+        <v>372.9624990529351</v>
       </c>
       <c r="L9" t="n">
-        <v>24.57142857142857</v>
+        <v>22.9772389903973</v>
       </c>
       <c r="M9" t="n">
-        <v>276.4857142857143</v>
+        <v>258.6483012491335</v>
       </c>
       <c r="N9" t="n">
-        <v>39.45714285714286</v>
+        <v>36.90503339355683</v>
       </c>
       <c r="O9" t="n">
-        <v>35079.8</v>
+        <v>32822.24989419879</v>
       </c>
       <c r="P9" t="n">
-        <v>2108.534285714285</v>
+        <v>1972.533069187244</v>
       </c>
       <c r="Q9" t="n">
-        <v>7059.4</v>
+        <v>6602.999732912004</v>
       </c>
       <c r="R9" t="n">
-        <v>2853.542857142857</v>
+        <v>2669.182464448235</v>
       </c>
       <c r="S9" t="n">
-        <v>251.3428571428572</v>
+        <v>235.132952968134</v>
       </c>
       <c r="T9" t="n">
-        <v>759.1142857142858</v>
+        <v>710.5611556902799</v>
       </c>
       <c r="U9" t="n">
-        <v>39.42857142857143</v>
+        <v>36.91028573641209</v>
       </c>
       <c r="V9" t="n">
-        <v>3612.657142857143</v>
+        <v>3379.743620138515</v>
       </c>
       <c r="W9" t="n">
-        <v>290.7714285714285</v>
+        <v>272.043238704546</v>
       </c>
       <c r="X9" t="n">
-        <v>385.0857142857143</v>
+        <v>360.4221816733501</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.45714285714286</v>
+        <v>19.16336104346119</v>
       </c>
       <c r="Z9" t="n">
-        <v>267.6</v>
+        <v>250.370317805314</v>
       </c>
       <c r="AA9" t="n">
-        <v>47.45714285714286</v>
+        <v>44.42988666735041</v>
       </c>
     </row>
     <row r="10">
@@ -1257,82 +1257,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40514.83783783784</v>
+        <v>38255.64517666001</v>
       </c>
       <c r="C10" t="n">
-        <v>1871.946216216216</v>
+        <v>1766.883441174571</v>
       </c>
       <c r="D10" t="n">
-        <v>6560.72972972973</v>
+        <v>6193.01590876589</v>
       </c>
       <c r="E10" t="n">
-        <v>2511.108108108108</v>
+        <v>2372.964735573008</v>
       </c>
       <c r="F10" t="n">
-        <v>237.3513513513514</v>
+        <v>224.3425409093067</v>
       </c>
       <c r="G10" t="n">
-        <v>876</v>
+        <v>827.9870874144821</v>
       </c>
       <c r="H10" t="n">
-        <v>43.97297297297298</v>
+        <v>41.58784447918433</v>
       </c>
       <c r="I10" t="n">
-        <v>3387.108108108108</v>
+        <v>3200.95182298749</v>
       </c>
       <c r="J10" t="n">
-        <v>281.3243243243243</v>
+        <v>265.930385388491</v>
       </c>
       <c r="K10" t="n">
-        <v>423.9189189189189</v>
+        <v>400.3020953679732</v>
       </c>
       <c r="L10" t="n">
-        <v>27.89189189189189</v>
+        <v>26.38165588884013</v>
       </c>
       <c r="M10" t="n">
-        <v>306.8648648648648</v>
+        <v>289.7676027772649</v>
       </c>
       <c r="N10" t="n">
-        <v>47.48648648648648</v>
+        <v>44.89919475651774</v>
       </c>
       <c r="O10" t="n">
-        <v>33863.13513513513</v>
+        <v>31960.22600064877</v>
       </c>
       <c r="P10" t="n">
-        <v>1919.415405405405</v>
+        <v>1812.256080771003</v>
       </c>
       <c r="Q10" t="n">
-        <v>6206.216216216216</v>
+        <v>5857.257841365194</v>
       </c>
       <c r="R10" t="n">
-        <v>2372.567567567567</v>
+        <v>2240.149115371444</v>
       </c>
       <c r="S10" t="n">
-        <v>218.4054054054054</v>
+        <v>206.092053379901</v>
       </c>
       <c r="T10" t="n">
-        <v>621.2162162162163</v>
+        <v>585.4340133463652</v>
       </c>
       <c r="U10" t="n">
-        <v>31.75675675675676</v>
+        <v>29.93613709859859</v>
       </c>
       <c r="V10" t="n">
-        <v>2993.783783783784</v>
+        <v>2825.583128717809</v>
       </c>
       <c r="W10" t="n">
-        <v>250.1621621621622</v>
+        <v>236.0281904784996</v>
       </c>
       <c r="X10" t="n">
-        <v>387.8648648648648</v>
+        <v>365.933849250119</v>
       </c>
       <c r="Y10" t="n">
-        <v>20.59459459459459</v>
+        <v>19.43182224566973</v>
       </c>
       <c r="Z10" t="n">
-        <v>281.3243243243243</v>
+        <v>265.413380104986</v>
       </c>
       <c r="AA10" t="n">
-        <v>47.10810810810811</v>
+        <v>44.40391729390301</v>
       </c>
     </row>
     <row r="11">
@@ -1342,82 +1342,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>36277.28571428572</v>
+        <v>34205.07958177093</v>
       </c>
       <c r="C11" t="n">
-        <v>1859.296</v>
+        <v>1752.370680344522</v>
       </c>
       <c r="D11" t="n">
-        <v>5785.742857142857</v>
+        <v>5453.99385887174</v>
       </c>
       <c r="E11" t="n">
-        <v>2264.057142857143</v>
+        <v>2133.668123212671</v>
       </c>
       <c r="F11" t="n">
-        <v>215.3428571428572</v>
+        <v>202.9644532584234</v>
       </c>
       <c r="G11" t="n">
-        <v>790.4857142857143</v>
+        <v>744.842622276547</v>
       </c>
       <c r="H11" t="n">
-        <v>39.77142857142857</v>
+        <v>37.46209824611816</v>
       </c>
       <c r="I11" t="n">
-        <v>3054.542857142857</v>
+        <v>2878.510745489218</v>
       </c>
       <c r="J11" t="n">
-        <v>255.1142857142857</v>
+        <v>240.4265515045415</v>
       </c>
       <c r="K11" t="n">
-        <v>370.9142857142857</v>
+        <v>349.6933136790033</v>
       </c>
       <c r="L11" t="n">
-        <v>21.6</v>
+        <v>20.35895531075379</v>
       </c>
       <c r="M11" t="n">
-        <v>267.4857142857143</v>
+        <v>252.169763229969</v>
       </c>
       <c r="N11" t="n">
-        <v>38.37142857142857</v>
+        <v>36.17941948018166</v>
       </c>
       <c r="O11" t="n">
-        <v>40806.2</v>
+        <v>38494.82309156028</v>
       </c>
       <c r="P11" t="n">
-        <v>2034.828</v>
+        <v>1917.931615868652</v>
       </c>
       <c r="Q11" t="n">
-        <v>7805.514285714286</v>
+        <v>7360.582111863511</v>
       </c>
       <c r="R11" t="n">
-        <v>3102.942857142857</v>
+        <v>2925.93209082244</v>
       </c>
       <c r="S11" t="n">
-        <v>291.3142857142857</v>
+        <v>274.6926342690621</v>
       </c>
       <c r="T11" t="n">
-        <v>840</v>
+        <v>792.0766859198609</v>
       </c>
       <c r="U11" t="n">
-        <v>44.45714285714286</v>
+        <v>41.91618988838238</v>
       </c>
       <c r="V11" t="n">
-        <v>3942.942857142857</v>
+        <v>3718.008776742302</v>
       </c>
       <c r="W11" t="n">
-        <v>335.7714285714285</v>
+        <v>316.6088241574445</v>
       </c>
       <c r="X11" t="n">
-        <v>473.5142857142857</v>
+        <v>446.6336069517446</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.97142857142857</v>
+        <v>22.60223208019178</v>
       </c>
       <c r="Z11" t="n">
-        <v>348.8857142857143</v>
+        <v>329.091952054256</v>
       </c>
       <c r="AA11" t="n">
-        <v>60.94285714285714</v>
+        <v>57.49436285072487</v>
       </c>
     </row>
     <row r="12">
@@ -1427,82 +1427,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>34877.83783783784</v>
+        <v>32758.08195563007</v>
       </c>
       <c r="C12" t="n">
-        <v>1905.092162162162</v>
+        <v>1793.357040425116</v>
       </c>
       <c r="D12" t="n">
-        <v>5579.324324324324</v>
+        <v>5238.694765575687</v>
       </c>
       <c r="E12" t="n">
-        <v>2223.351351351351</v>
+        <v>2086.253184673554</v>
       </c>
       <c r="F12" t="n">
-        <v>212.2432432432433</v>
+        <v>199.2119480330693</v>
       </c>
       <c r="G12" t="n">
-        <v>843.1351351351351</v>
+        <v>791.565795236153</v>
       </c>
       <c r="H12" t="n">
-        <v>41.43243243243244</v>
+        <v>38.89003550448751</v>
       </c>
       <c r="I12" t="n">
-        <v>3066.486486486487</v>
+        <v>2877.818979909707</v>
       </c>
       <c r="J12" t="n">
-        <v>253.6756756756757</v>
+        <v>238.1019835375568</v>
       </c>
       <c r="K12" t="n">
-        <v>368.1081081081081</v>
+        <v>345.8938173378686</v>
       </c>
       <c r="L12" t="n">
-        <v>21.7027027027027</v>
+        <v>20.40748480673266</v>
       </c>
       <c r="M12" t="n">
-        <v>252.8918918918919</v>
+        <v>237.5930698026506</v>
       </c>
       <c r="N12" t="n">
-        <v>40.10810810810811</v>
+        <v>37.69317383878818</v>
       </c>
       <c r="O12" t="n">
-        <v>41007.81081081081</v>
+        <v>38599.67811345107</v>
       </c>
       <c r="P12" t="n">
-        <v>2052.601621621622</v>
+        <v>1932.322711398921</v>
       </c>
       <c r="Q12" t="n">
-        <v>7138.864864864865</v>
+        <v>6718.351363627067</v>
       </c>
       <c r="R12" t="n">
-        <v>2532.54054054054</v>
+        <v>2380.928069859604</v>
       </c>
       <c r="S12" t="n">
-        <v>248.7297297297297</v>
+        <v>233.8774139636755</v>
       </c>
       <c r="T12" t="n">
-        <v>689.3513513513514</v>
+        <v>647.6339143920569</v>
       </c>
       <c r="U12" t="n">
-        <v>36.64864864864865</v>
+        <v>34.44766538418413</v>
       </c>
       <c r="V12" t="n">
-        <v>3221.891891891892</v>
+        <v>3028.561984251661</v>
       </c>
       <c r="W12" t="n">
-        <v>285.3783783783784</v>
+        <v>268.3250793478596</v>
       </c>
       <c r="X12" t="n">
-        <v>468.7027027027027</v>
+        <v>441.1664114612844</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.27027027027027</v>
+        <v>20.96319904245146</v>
       </c>
       <c r="Z12" t="n">
-        <v>349.0810810810811</v>
+        <v>328.5689656180538</v>
       </c>
       <c r="AA12" t="n">
-        <v>57.21621621621622</v>
+        <v>53.81616349185092</v>
       </c>
     </row>
     <row r="13">
@@ -1512,82 +1512,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37059.15789473684</v>
+        <v>34953.74543420662</v>
       </c>
       <c r="C13" t="n">
-        <v>1979.321578947368</v>
+        <v>1866.032217015614</v>
       </c>
       <c r="D13" t="n">
-        <v>5997.657894736843</v>
+        <v>5656.712370198617</v>
       </c>
       <c r="E13" t="n">
-        <v>2538.605263157895</v>
+        <v>2394.085879409804</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5</v>
+        <v>222.110488791928</v>
       </c>
       <c r="G13" t="n">
-        <v>907.921052631579</v>
+        <v>856.2483521944293</v>
       </c>
       <c r="H13" t="n">
-        <v>46.07894736842105</v>
+        <v>43.45043130386292</v>
       </c>
       <c r="I13" t="n">
-        <v>3446.526315789474</v>
+        <v>3250.334231604233</v>
       </c>
       <c r="J13" t="n">
-        <v>281.578947368421</v>
+        <v>265.5609200957909</v>
       </c>
       <c r="K13" t="n">
-        <v>389.4736842105263</v>
+        <v>367.3673110889612</v>
       </c>
       <c r="L13" t="n">
-        <v>23.44736842105263</v>
+        <v>22.13109474157912</v>
       </c>
       <c r="M13" t="n">
-        <v>274.2894736842105</v>
+        <v>258.7621329727833</v>
       </c>
       <c r="N13" t="n">
-        <v>43.07894736842105</v>
+        <v>40.62741098809929</v>
       </c>
       <c r="O13" t="n">
-        <v>40006.05263157895</v>
+        <v>37707.68500705942</v>
       </c>
       <c r="P13" t="n">
-        <v>2044.619210526316</v>
+        <v>1927.470901623121</v>
       </c>
       <c r="Q13" t="n">
-        <v>7438.105263157895</v>
+        <v>7011.104832049384</v>
       </c>
       <c r="R13" t="n">
-        <v>2860.578947368421</v>
+        <v>2696.729128388443</v>
       </c>
       <c r="S13" t="n">
-        <v>266.3157894736842</v>
+        <v>251.0553186819429</v>
       </c>
       <c r="T13" t="n">
-        <v>769.421052631579</v>
+        <v>725.6114142936802</v>
       </c>
       <c r="U13" t="n">
-        <v>41.44736842105263</v>
+        <v>39.06582525829596</v>
       </c>
       <c r="V13" t="n">
-        <v>3630</v>
+        <v>3422.340542682123</v>
       </c>
       <c r="W13" t="n">
-        <v>307.7631578947368</v>
+        <v>290.1211439402388</v>
       </c>
       <c r="X13" t="n">
-        <v>457.3157894736842</v>
+        <v>431.0926321078739</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.5</v>
+        <v>21.21677259777582</v>
       </c>
       <c r="Z13" t="n">
-        <v>326.2631578947368</v>
+        <v>307.5498847283098</v>
       </c>
       <c r="AA13" t="n">
-        <v>56.6578947368421</v>
+        <v>53.45620293251407</v>
       </c>
     </row>
     <row r="14">
@@ -1597,82 +1597,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35268.84210526316</v>
+        <v>32963.50632179116</v>
       </c>
       <c r="C14" t="n">
-        <v>1892.807368421052</v>
+        <v>1767.23706594256</v>
       </c>
       <c r="D14" t="n">
-        <v>5104.131578947368</v>
+        <v>4769.842932808218</v>
       </c>
       <c r="E14" t="n">
-        <v>2028.736842105263</v>
+        <v>1895.187098614456</v>
       </c>
       <c r="F14" t="n">
-        <v>197.7894736842105</v>
+        <v>184.84857931165</v>
       </c>
       <c r="G14" t="n">
-        <v>727.8947368421053</v>
+        <v>679.4621046825976</v>
       </c>
       <c r="H14" t="n">
-        <v>35.07894736842105</v>
+        <v>32.77406582441426</v>
       </c>
       <c r="I14" t="n">
-        <v>2756.631578947368</v>
+        <v>2574.649203297054</v>
       </c>
       <c r="J14" t="n">
-        <v>232.8684210526316</v>
+        <v>217.6226451360643</v>
       </c>
       <c r="K14" t="n">
-        <v>356.8421052631579</v>
+        <v>333.4816257848676</v>
       </c>
       <c r="L14" t="n">
-        <v>21.05263157894737</v>
+        <v>19.66103671024132</v>
       </c>
       <c r="M14" t="n">
-        <v>254.1578947368421</v>
+        <v>237.581875238145</v>
       </c>
       <c r="N14" t="n">
-        <v>38.13157894736842</v>
+        <v>35.65024436258229</v>
       </c>
       <c r="O14" t="n">
-        <v>40648.07894736842</v>
+        <v>37916.45322392388</v>
       </c>
       <c r="P14" t="n">
-        <v>2040.307368421052</v>
+        <v>1904.955064933057</v>
       </c>
       <c r="Q14" t="n">
-        <v>6971.263157894737</v>
+        <v>6502.18421103032</v>
       </c>
       <c r="R14" t="n">
-        <v>2407.736842105263</v>
+        <v>2245.90156479402</v>
       </c>
       <c r="S14" t="n">
-        <v>233.8157894736842</v>
+        <v>218.1427384878003</v>
       </c>
       <c r="T14" t="n">
-        <v>597.5526315789474</v>
+        <v>557.7131031458366</v>
       </c>
       <c r="U14" t="n">
-        <v>32.05263157894737</v>
+        <v>29.90705738630099</v>
       </c>
       <c r="V14" t="n">
-        <v>3005.28947368421</v>
+        <v>2803.614667939856</v>
       </c>
       <c r="W14" t="n">
-        <v>265.8684210526316</v>
+        <v>248.0497958741013</v>
       </c>
       <c r="X14" t="n">
-        <v>438.7368421052632</v>
+        <v>409.2760007511265</v>
       </c>
       <c r="Y14" t="n">
-        <v>21.28947368421053</v>
+        <v>19.85950173582542</v>
       </c>
       <c r="Z14" t="n">
-        <v>326.421052631579</v>
+        <v>304.509415916294</v>
       </c>
       <c r="AA14" t="n">
-        <v>54.3421052631579</v>
+        <v>50.69267749269447</v>
       </c>
     </row>
     <row r="15">
@@ -1682,82 +1682,82 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34374.34285714286</v>
+        <v>32220.02150676567</v>
       </c>
       <c r="C15" t="n">
-        <v>1950.023428571429</v>
+        <v>1830.580065384755</v>
       </c>
       <c r="D15" t="n">
-        <v>5657.057142857143</v>
+        <v>5301.239069384605</v>
       </c>
       <c r="E15" t="n">
-        <v>2274.228571428571</v>
+        <v>2132.011747436541</v>
       </c>
       <c r="F15" t="n">
-        <v>211.4857142857143</v>
+        <v>198.2071088969121</v>
       </c>
       <c r="G15" t="n">
-        <v>742.0571428571428</v>
+        <v>695.8568040917461</v>
       </c>
       <c r="H15" t="n">
-        <v>37.82857142857143</v>
+        <v>35.4765987436576</v>
       </c>
       <c r="I15" t="n">
-        <v>3016.285714285714</v>
+        <v>2827.868551528287</v>
       </c>
       <c r="J15" t="n">
-        <v>249.3142857142857</v>
+        <v>233.6837076405697</v>
       </c>
       <c r="K15" t="n">
-        <v>359.6285714285714</v>
+        <v>336.9844681024867</v>
       </c>
       <c r="L15" t="n">
-        <v>22.05714285714286</v>
+        <v>20.6634454395392</v>
       </c>
       <c r="M15" t="n">
-        <v>257.7428571428571</v>
+        <v>241.4789991936919</v>
       </c>
       <c r="N15" t="n">
-        <v>39.22857142857143</v>
+        <v>36.72691545228616</v>
       </c>
       <c r="O15" t="n">
-        <v>41123.91428571429</v>
+        <v>38633.96516341814</v>
       </c>
       <c r="P15" t="n">
-        <v>2099.056285714286</v>
+        <v>1969.789367164996</v>
       </c>
       <c r="Q15" t="n">
-        <v>7453.771428571428</v>
+        <v>6997.280355470257</v>
       </c>
       <c r="R15" t="n">
-        <v>2875.942857142857</v>
+        <v>2697.922713108198</v>
       </c>
       <c r="S15" t="n">
-        <v>266.8285714285714</v>
+        <v>250.4019201540983</v>
       </c>
       <c r="T15" t="n">
-        <v>782.3142857142857</v>
+        <v>733.9124385027154</v>
       </c>
       <c r="U15" t="n">
-        <v>39.82857142857143</v>
+        <v>37.36432920592028</v>
       </c>
       <c r="V15" t="n">
-        <v>3658.257142857143</v>
+        <v>3431.835151610913</v>
       </c>
       <c r="W15" t="n">
-        <v>306.6571428571428</v>
+        <v>287.7662493600186</v>
       </c>
       <c r="X15" t="n">
-        <v>452.7142857142857</v>
+        <v>425.14171812629</v>
       </c>
       <c r="Y15" t="n">
-        <v>22.08571428571429</v>
+        <v>20.73584994464252</v>
       </c>
       <c r="Z15" t="n">
-        <v>333.7428571428571</v>
+        <v>313.5033248193728</v>
       </c>
       <c r="AA15" t="n">
-        <v>53.2</v>
+        <v>49.95718077567489</v>
       </c>
     </row>
     <row r="16">
@@ -1767,82 +1767,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32626.35294117647</v>
+        <v>30965.54675942479</v>
       </c>
       <c r="C16" t="n">
-        <v>1892.797058823529</v>
+        <v>1800.850341017</v>
       </c>
       <c r="D16" t="n">
-        <v>5177</v>
+        <v>4916.24135140615</v>
       </c>
       <c r="E16" t="n">
-        <v>2068.235294117647</v>
+        <v>1966.027655306044</v>
       </c>
       <c r="F16" t="n">
-        <v>192.7058823529412</v>
+        <v>183.1214673779982</v>
       </c>
       <c r="G16" t="n">
-        <v>711.2941176470588</v>
+        <v>677.8628917114975</v>
       </c>
       <c r="H16" t="n">
-        <v>35</v>
+        <v>33.30107361485849</v>
       </c>
       <c r="I16" t="n">
-        <v>2779.529411764706</v>
+        <v>2643.890547017541</v>
       </c>
       <c r="J16" t="n">
-        <v>227.7058823529412</v>
+        <v>216.4225409928567</v>
       </c>
       <c r="K16" t="n">
-        <v>341.0882352941176</v>
+        <v>323.6035574796436</v>
       </c>
       <c r="L16" t="n">
-        <v>18.5</v>
+        <v>17.61052936080061</v>
       </c>
       <c r="M16" t="n">
-        <v>235.7647058823529</v>
+        <v>223.6140481905484</v>
       </c>
       <c r="N16" t="n">
-        <v>35.70588235294117</v>
+        <v>33.918905803945</v>
       </c>
       <c r="O16" t="n">
-        <v>40430.5</v>
+        <v>38398.02693295938</v>
       </c>
       <c r="P16" t="n">
-        <v>1987.430882352941</v>
+        <v>1890.408695170702</v>
       </c>
       <c r="Q16" t="n">
-        <v>7417.382352941177</v>
+        <v>7041.233320611997</v>
       </c>
       <c r="R16" t="n">
-        <v>2755.411764705882</v>
+        <v>2613.129243165958</v>
       </c>
       <c r="S16" t="n">
-        <v>253.5588235294118</v>
+        <v>240.5277961084957</v>
       </c>
       <c r="T16" t="n">
-        <v>735.2941176470588</v>
+        <v>698.5232165099505</v>
       </c>
       <c r="U16" t="n">
-        <v>36.05882352941177</v>
+        <v>34.20702297399577</v>
       </c>
       <c r="V16" t="n">
-        <v>3490.705882352941</v>
+        <v>3311.652459675908</v>
       </c>
       <c r="W16" t="n">
-        <v>289.6176470588235</v>
+        <v>274.7348190824914</v>
       </c>
       <c r="X16" t="n">
-        <v>455.9411764705882</v>
+        <v>432.9397177833973</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.23529411764706</v>
+        <v>19.23656628065979</v>
       </c>
       <c r="Z16" t="n">
-        <v>335.8235294117647</v>
+        <v>318.9259233922268</v>
       </c>
       <c r="AA16" t="n">
-        <v>50.76470588235294</v>
+        <v>48.19573460368308</v>
       </c>
     </row>
     <row r="17">
@@ -1852,82 +1852,82 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34132.05405405405</v>
+        <v>32092.43569744579</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.951081081081</v>
+        <v>1842.455613025959</v>
       </c>
       <c r="D17" t="n">
-        <v>5514.648648648648</v>
+        <v>5183.70059725008</v>
       </c>
       <c r="E17" t="n">
-        <v>2179.297297297298</v>
+        <v>2048.634412762716</v>
       </c>
       <c r="F17" t="n">
-        <v>206.2432432432433</v>
+        <v>193.8997873659992</v>
       </c>
       <c r="G17" t="n">
-        <v>750.7567567567568</v>
+        <v>705.9473503914388</v>
       </c>
       <c r="H17" t="n">
-        <v>38.43243243243244</v>
+        <v>36.12607865931245</v>
       </c>
       <c r="I17" t="n">
-        <v>2930.054054054054</v>
+        <v>2754.581763154155</v>
       </c>
       <c r="J17" t="n">
-        <v>244.6756756756757</v>
+        <v>230.0258660253117</v>
       </c>
       <c r="K17" t="n">
-        <v>355.4324324324324</v>
+        <v>334.2046841778367</v>
       </c>
       <c r="L17" t="n">
-        <v>18.32432432432432</v>
+        <v>17.21672867397698</v>
       </c>
       <c r="M17" t="n">
-        <v>243.3243243243243</v>
+        <v>228.8672944249722</v>
       </c>
       <c r="N17" t="n">
-        <v>36.89189189189189</v>
+        <v>34.66413181414439</v>
       </c>
       <c r="O17" t="n">
-        <v>43122.94594594595</v>
+        <v>40525.21044240975</v>
       </c>
       <c r="P17" t="n">
-        <v>2096.932702702702</v>
+        <v>1970.158275158401</v>
       </c>
       <c r="Q17" t="n">
-        <v>8411.108108108108</v>
+        <v>7900.865829780558</v>
       </c>
       <c r="R17" t="n">
-        <v>3195.324324324324</v>
+        <v>3001.926673098896</v>
       </c>
       <c r="S17" t="n">
-        <v>288.7567567567568</v>
+        <v>271.3109752725626</v>
       </c>
       <c r="T17" t="n">
-        <v>857.6756756756756</v>
+        <v>806.4426957447115</v>
       </c>
       <c r="U17" t="n">
-        <v>43.86486486486486</v>
+        <v>41.23337589593452</v>
       </c>
       <c r="V17" t="n">
-        <v>4053</v>
+        <v>3808.369368843608</v>
       </c>
       <c r="W17" t="n">
-        <v>332.6216216216216</v>
+        <v>312.5443511684971</v>
       </c>
       <c r="X17" t="n">
-        <v>472.7567567567568</v>
+        <v>444.2224908853827</v>
       </c>
       <c r="Y17" t="n">
-        <v>21.05405405405405</v>
+        <v>19.77996690059289</v>
       </c>
       <c r="Z17" t="n">
-        <v>354.972972972973</v>
+        <v>333.5524342211514</v>
       </c>
       <c r="AA17" t="n">
-        <v>62.21621621621622</v>
+        <v>58.48504078741644</v>
       </c>
     </row>
     <row r="18">
@@ -1937,82 +1937,82 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>34645.22222222222</v>
+        <v>32706.80719737224</v>
       </c>
       <c r="C18" t="n">
-        <v>1962.869444444445</v>
+        <v>1854.540548606246</v>
       </c>
       <c r="D18" t="n">
-        <v>5813.083333333333</v>
+        <v>5486.705109831577</v>
       </c>
       <c r="E18" t="n">
-        <v>2195.805555555556</v>
+        <v>2073.734208818265</v>
       </c>
       <c r="F18" t="n">
-        <v>215.2777777777778</v>
+        <v>203.242568382218</v>
       </c>
       <c r="G18" t="n">
-        <v>657.6111111111111</v>
+        <v>621.2318161859457</v>
       </c>
       <c r="H18" t="n">
-        <v>37.08333333333334</v>
+        <v>35.01734905756427</v>
       </c>
       <c r="I18" t="n">
-        <v>2853.416666666667</v>
+        <v>2694.96602500421</v>
       </c>
       <c r="J18" t="n">
-        <v>252.3611111111111</v>
+        <v>238.2599174397823</v>
       </c>
       <c r="K18" t="n">
-        <v>361.9166666666667</v>
+        <v>341.7040212931961</v>
       </c>
       <c r="L18" t="n">
-        <v>21.02777777777778</v>
+        <v>19.8393154251435</v>
       </c>
       <c r="M18" t="n">
-        <v>251.8055555555555</v>
+        <v>237.7130449073506</v>
       </c>
       <c r="N18" t="n">
-        <v>40.25</v>
+        <v>38.00438393296406</v>
       </c>
       <c r="O18" t="n">
-        <v>44247.27777777778</v>
+        <v>41842.81071672353</v>
       </c>
       <c r="P18" t="n">
-        <v>2272.552222222223</v>
+        <v>2147.247733113258</v>
       </c>
       <c r="Q18" t="n">
-        <v>9735.833333333334</v>
+        <v>9202.918048062398</v>
       </c>
       <c r="R18" t="n">
-        <v>4224.083333333333</v>
+        <v>3992.576644895034</v>
       </c>
       <c r="S18" t="n">
-        <v>373.4722222222222</v>
+        <v>352.9747693873791</v>
       </c>
       <c r="T18" t="n">
-        <v>1165.694444444444</v>
+        <v>1100.605823962163</v>
       </c>
       <c r="U18" t="n">
-        <v>63.97222222222222</v>
+        <v>60.41563664314325</v>
       </c>
       <c r="V18" t="n">
-        <v>5389.777777777777</v>
+        <v>5093.182468857197</v>
       </c>
       <c r="W18" t="n">
-        <v>437.4444444444445</v>
+        <v>413.3904060305224</v>
       </c>
       <c r="X18" t="n">
-        <v>494.75</v>
+        <v>467.8653562805059</v>
       </c>
       <c r="Y18" t="n">
-        <v>24</v>
+        <v>22.64911874439506</v>
       </c>
       <c r="Z18" t="n">
-        <v>344.3611111111111</v>
+        <v>325.7334128163661</v>
       </c>
       <c r="AA18" t="n">
-        <v>71.22222222222223</v>
+        <v>67.31286071329997</v>
       </c>
     </row>
     <row r="19">
@@ -2022,82 +2022,82 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>37399.56756756757</v>
+        <v>34994.11276809201</v>
       </c>
       <c r="C19" t="n">
-        <v>2017.006756756757</v>
+        <v>1886.173303597148</v>
       </c>
       <c r="D19" t="n">
-        <v>6233.27027027027</v>
+        <v>5831.629067891557</v>
       </c>
       <c r="E19" t="n">
-        <v>2447.594594594595</v>
+        <v>2289.377205619548</v>
       </c>
       <c r="F19" t="n">
-        <v>234.6216216216216</v>
+        <v>219.4289286512258</v>
       </c>
       <c r="G19" t="n">
-        <v>872.7027027027027</v>
+        <v>815.779541114235</v>
       </c>
       <c r="H19" t="n">
-        <v>44.94594594594594</v>
+        <v>42.00194898887105</v>
       </c>
       <c r="I19" t="n">
-        <v>3320.297297297298</v>
+        <v>3105.156746733783</v>
       </c>
       <c r="J19" t="n">
-        <v>279.5675675675676</v>
+        <v>261.4308776400969</v>
       </c>
       <c r="K19" t="n">
-        <v>389.9459459459459</v>
+        <v>364.9969406796904</v>
       </c>
       <c r="L19" t="n">
-        <v>23.89189189189189</v>
+        <v>22.33109916375548</v>
       </c>
       <c r="M19" t="n">
-        <v>268.6216216216216</v>
+        <v>251.4333672983258</v>
       </c>
       <c r="N19" t="n">
-        <v>40.62162162162162</v>
+        <v>38.02113080195703</v>
       </c>
       <c r="O19" t="n">
-        <v>38040.67567567567</v>
+        <v>35593.54238090029</v>
       </c>
       <c r="P19" t="n">
-        <v>2091.488108108108</v>
+        <v>1956.507447167411</v>
       </c>
       <c r="Q19" t="n">
-        <v>7035.243243243243</v>
+        <v>6581.101173174808</v>
       </c>
       <c r="R19" t="n">
-        <v>2760.702702702702</v>
+        <v>2583.964680104031</v>
       </c>
       <c r="S19" t="n">
-        <v>264.1621621621622</v>
+        <v>247.1156971093195</v>
       </c>
       <c r="T19" t="n">
-        <v>798</v>
+        <v>746.6306666501458</v>
       </c>
       <c r="U19" t="n">
-        <v>42</v>
+        <v>39.28784236278945</v>
       </c>
       <c r="V19" t="n">
-        <v>3558.702702702702</v>
+        <v>3330.595346754177</v>
       </c>
       <c r="W19" t="n">
-        <v>306.1621621621622</v>
+        <v>286.4035394721089</v>
       </c>
       <c r="X19" t="n">
-        <v>440.0810810810811</v>
+        <v>411.6386442342052</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.37837837837838</v>
+        <v>20.93217797149137</v>
       </c>
       <c r="Z19" t="n">
-        <v>310.2432432432432</v>
+        <v>290.2335250147322</v>
       </c>
       <c r="AA19" t="n">
-        <v>53.16216216216216</v>
+        <v>49.70419316230832</v>
       </c>
     </row>
     <row r="20">
@@ -2107,82 +2107,82 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>35775.02777777778</v>
+        <v>33635.70042211857</v>
       </c>
       <c r="C20" t="n">
-        <v>1959.983888888889</v>
+        <v>1841.903180168291</v>
       </c>
       <c r="D20" t="n">
-        <v>5645.555555555556</v>
+        <v>5305.916087443142</v>
       </c>
       <c r="E20" t="n">
-        <v>2163.222222222222</v>
+        <v>2031.035600461399</v>
       </c>
       <c r="F20" t="n">
-        <v>203.7222222222222</v>
+        <v>191.4129089669059</v>
       </c>
       <c r="G20" t="n">
-        <v>698.3333333333334</v>
+        <v>655.4278370891473</v>
       </c>
       <c r="H20" t="n">
-        <v>35.97222222222222</v>
+        <v>33.78516259738231</v>
       </c>
       <c r="I20" t="n">
-        <v>2861.555555555556</v>
+        <v>2686.463437550546</v>
       </c>
       <c r="J20" t="n">
-        <v>239.6944444444445</v>
+        <v>225.1980715642882</v>
       </c>
       <c r="K20" t="n">
-        <v>377.3333333333333</v>
+        <v>354.8949109155481</v>
       </c>
       <c r="L20" t="n">
-        <v>20.16666666666667</v>
+        <v>18.95430460545614</v>
       </c>
       <c r="M20" t="n">
-        <v>264.1666666666667</v>
+        <v>248.556750185756</v>
       </c>
       <c r="N20" t="n">
-        <v>38.88888888888889</v>
+        <v>36.54961972291465</v>
       </c>
       <c r="O20" t="n">
-        <v>40629.16666666666</v>
+        <v>38194.24051650666</v>
       </c>
       <c r="P20" t="n">
-        <v>2008.577222222222</v>
+        <v>1887.986747529322</v>
       </c>
       <c r="Q20" t="n">
-        <v>7225.5</v>
+        <v>6792.473984308117</v>
       </c>
       <c r="R20" t="n">
-        <v>2600.055555555556</v>
+        <v>2444.004356279804</v>
       </c>
       <c r="S20" t="n">
-        <v>247.1111111111111</v>
+        <v>232.3109276618534</v>
       </c>
       <c r="T20" t="n">
-        <v>681.3333333333334</v>
+        <v>640.7241277567756</v>
       </c>
       <c r="U20" t="n">
-        <v>35.80555555555556</v>
+        <v>33.65720504742838</v>
       </c>
       <c r="V20" t="n">
-        <v>3281.388888888889</v>
+        <v>3084.728484036579</v>
       </c>
       <c r="W20" t="n">
-        <v>282.9166666666667</v>
+        <v>265.9681327092818</v>
       </c>
       <c r="X20" t="n">
-        <v>447.8888888888889</v>
+        <v>421.0167316122428</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.72222222222222</v>
+        <v>20.40228236563006</v>
       </c>
       <c r="Z20" t="n">
-        <v>332.1944444444445</v>
+        <v>312.3413544941554</v>
       </c>
       <c r="AA20" t="n">
-        <v>51.61111111111111</v>
+        <v>48.51663485661462</v>
       </c>
     </row>
     <row r="21">
@@ -2192,82 +2192,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>36346.33333333334</v>
+        <v>34289.36642145396</v>
       </c>
       <c r="C21" t="n">
-        <v>1890.891515151515</v>
+        <v>1785.135697777305</v>
       </c>
       <c r="D21" t="n">
-        <v>5751</v>
+        <v>5425.660954276913</v>
       </c>
       <c r="E21" t="n">
-        <v>2235.030303030303</v>
+        <v>2109.576997424297</v>
       </c>
       <c r="F21" t="n">
-        <v>209.3333333333333</v>
+        <v>197.5925635397815</v>
       </c>
       <c r="G21" t="n">
-        <v>781.6363636363636</v>
+        <v>737.2301563109829</v>
       </c>
       <c r="H21" t="n">
-        <v>39.63636363636363</v>
+        <v>37.39092385780267</v>
       </c>
       <c r="I21" t="n">
-        <v>3016.666666666667</v>
+        <v>2846.80715373528</v>
       </c>
       <c r="J21" t="n">
-        <v>248.969696969697</v>
+        <v>234.9834873975841</v>
       </c>
       <c r="K21" t="n">
-        <v>374.8484848484849</v>
+        <v>353.6356650982439</v>
       </c>
       <c r="L21" t="n">
-        <v>20.60606060606061</v>
+        <v>19.43139192956996</v>
       </c>
       <c r="M21" t="n">
-        <v>265.3939393939394</v>
+        <v>250.3691403750342</v>
       </c>
       <c r="N21" t="n">
-        <v>38.72727272727273</v>
+        <v>36.53557994697282</v>
       </c>
       <c r="O21" t="n">
-        <v>44151.51515151515</v>
+        <v>41663.34866694458</v>
       </c>
       <c r="P21" t="n">
-        <v>2037.011818181818</v>
+        <v>1923.054261902613</v>
       </c>
       <c r="Q21" t="n">
-        <v>8423.212121212122</v>
+        <v>7949.114128038998</v>
       </c>
       <c r="R21" t="n">
-        <v>3141.484848484848</v>
+        <v>2965.687650254197</v>
       </c>
       <c r="S21" t="n">
-        <v>293.5454545454546</v>
+        <v>277.0982982233472</v>
       </c>
       <c r="T21" t="n">
-        <v>827.7575757575758</v>
+        <v>781.4176108836199</v>
       </c>
       <c r="U21" t="n">
-        <v>43.51515151515152</v>
+        <v>41.08631266665343</v>
       </c>
       <c r="V21" t="n">
-        <v>3969.242424242424</v>
+        <v>3747.105261137817</v>
       </c>
       <c r="W21" t="n">
-        <v>337.0606060606061</v>
+        <v>318.1846108900007</v>
       </c>
       <c r="X21" t="n">
-        <v>490.0909090909091</v>
+        <v>462.5051145262245</v>
       </c>
       <c r="Y21" t="n">
-        <v>21.81818181818182</v>
+        <v>20.58648107071341</v>
       </c>
       <c r="Z21" t="n">
-        <v>373.8181818181818</v>
+        <v>352.7150321250502</v>
       </c>
       <c r="AA21" t="n">
-        <v>58.06060606060606</v>
+        <v>54.79992878442881</v>
       </c>
     </row>
   </sheetData>
